--- a/biology/Botanique/Parc_d'Arabianmäki/Parc_d'Arabianmäki.xlsx
+++ b/biology/Botanique/Parc_d'Arabianmäki/Parc_d'Arabianmäki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_d%27Arabianm%C3%A4ki</t>
+          <t>Parc_d'Arabianmäki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc d'Arabianmäki (en finnois : Arabianmäen puisto) est un parc situé dans la section Arabianranta du quartier de Toukola à Helsinki en Finlande[1],[2].
+Le parc d'Arabianmäki (en finnois : Arabianmäen puisto) est un parc situé dans la section Arabianranta du quartier de Toukola à Helsinki en Finlande,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_d%27Arabianm%C3%A4ki</t>
+          <t>Parc_d'Arabianmäki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc d'Arabianmäki a été créé en 1999 en transformant en parc les jardins des villas des directeurs d'usine des usines Arabia.
 Le parc abrite, entre-autres, des lilas, bouleaux et des arbres fruitiers et l'œuvre métallique Nocturnal d'Anu Kiiskinen. 
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_d%27Arabianm%C3%A4ki</t>
+          <t>Parc_d'Arabianmäki</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Festival d'Arabia</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au printemps, le festival de rue d'Arabia propose des activités dans ce qu'on appelle Kivitori (la place de pierre) qui est appréciée des snowboarders en hiver. 
 La pelouse entourant Kivitori est un lieu de pause et de pique-nique tres fréquenté.
